--- a/word/日程.xlsx
+++ b/word/日程.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,22 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>告诉狄叶红密码，查询快递是否收到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查恒泰公安校验情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午写好季报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>留意各环境情况，处理工作问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,14 +355,6 @@
   </si>
   <si>
     <t>工作事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补写上周日报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -496,7 +472,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1377,6 +1353,162 @@
     <xf numFmtId="20" fontId="6" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1395,12 +1527,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1411,156 +1537,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1569,6 +1545,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1588,7 +1632,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1845,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9.6" x14ac:dyDescent="0.25"/>
@@ -1863,46 +1907,46 @@
   <sheetData>
     <row r="1" spans="1:24" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90"/>
-      <c r="I2" s="73" t="s">
+      <c r="A2" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="I2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="W2" s="22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="X2" s="22" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1927,32 +1971,32 @@
       <c r="G3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="58"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58" t="s">
+      <c r="M3" s="41"/>
+      <c r="N3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="59"/>
+      <c r="O3" s="51"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="45"/>
+      <c r="Q3" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="75"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -1976,30 +2020,30 @@
       <c r="G4" s="17">
         <v>7</v>
       </c>
-      <c r="I4" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="65"/>
+      <c r="I4" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="57"/>
       <c r="K4" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="O4" s="61"/>
+        <v>92</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="53"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="45"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="75"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -2023,32 +2067,32 @@
       <c r="G5" s="19">
         <v>14</v>
       </c>
-      <c r="I5" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" s="71"/>
+      <c r="I5" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="63"/>
       <c r="K5" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="O5" s="63"/>
+        <v>107</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="55"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="45"/>
+      <c r="Q5" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="75"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
@@ -2072,22 +2116,22 @@
       <c r="G6" s="17">
         <v>21</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="61"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="45"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="75"/>
     </row>
     <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
@@ -2111,24 +2155,24 @@
       <c r="G7" s="19">
         <v>28</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="24"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="63"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="55"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="45"/>
+      <c r="Q7" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="75"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
@@ -2144,603 +2188,591 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="67"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="59"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="45"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="87"/>
-      <c r="I9" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="84"/>
-      <c r="Q9" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="42"/>
+      <c r="A9" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="I9" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
+      <c r="Q9" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="78"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
       <c r="I10" s="20">
         <v>0.27083333333333331</v>
       </c>
-      <c r="J10" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="79"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="42"/>
+      <c r="J10" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="78"/>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
       <c r="I11" s="20">
         <v>0.29166666666666702</v>
       </c>
-      <c r="J11" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="81"/>
-      <c r="Q11" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="42"/>
+      <c r="J11" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="47"/>
+      <c r="Q11" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="78"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>3</v>
       </c>
-      <c r="B12" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
       <c r="I12" s="20">
         <v>0.33333333333333298</v>
       </c>
-      <c r="J12" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="79"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="42"/>
+      <c r="J12" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="45"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="78"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>4</v>
       </c>
-      <c r="B13" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
       <c r="I13" s="20">
         <v>0.375</v>
       </c>
-      <c r="J13" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="81"/>
-      <c r="Q13" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="42"/>
+      <c r="J13" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="47"/>
+      <c r="Q13" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="78"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>5</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
       <c r="I14" s="20">
         <v>0.41666666666666702</v>
       </c>
-      <c r="J14" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="79"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="42"/>
+      <c r="J14" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="45"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="78"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>6</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
       <c r="I15" s="20">
         <v>0.45833333333333298</v>
       </c>
-      <c r="J15" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="81"/>
-      <c r="Q15" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="42"/>
+      <c r="J15" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="47"/>
+      <c r="Q15" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="78"/>
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>7</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
       <c r="I16" s="20">
         <v>0.5</v>
       </c>
-      <c r="J16" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="79"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="42"/>
+      <c r="J16" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="45"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="78"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>8</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
       <c r="I17" s="20">
         <v>0.54166666666666696</v>
       </c>
-      <c r="J17" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="81"/>
-      <c r="Q17" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="42"/>
+      <c r="J17" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="47"/>
+      <c r="Q17" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="78"/>
     </row>
     <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>9</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
       <c r="I18" s="20">
         <v>0.58333333333333304</v>
       </c>
-      <c r="J18" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="79"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="42"/>
+      <c r="J18" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="45"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="78"/>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>10</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
       <c r="I19" s="20">
         <v>0.625</v>
       </c>
-      <c r="J19" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="81"/>
-      <c r="Q19" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="36"/>
+      <c r="J19" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="47"/>
+      <c r="Q19" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="80"/>
     </row>
     <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>11</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
       <c r="I20" s="20">
         <v>0.66666666666666696</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="79"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="36"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="45"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="80"/>
     </row>
     <row r="21" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>12</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
       <c r="I21" s="20">
         <v>0.70833333333333304</v>
       </c>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="81"/>
-      <c r="Q21" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="36"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="47"/>
+      <c r="Q21" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="80"/>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
       <c r="I22" s="20">
         <v>0.75</v>
       </c>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="79"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="36"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="45"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="80"/>
     </row>
     <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
       <c r="I23" s="20">
         <v>0.79166666666666696</v>
       </c>
-      <c r="J23" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="81"/>
-      <c r="Q23" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="36"/>
+      <c r="J23" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="47"/>
+      <c r="Q23" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="80"/>
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
       <c r="I24" s="20">
         <v>0.83333333333333304</v>
       </c>
-      <c r="J24" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="79"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="36"/>
+      <c r="J24" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="45"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="80"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
       <c r="I25" s="20">
         <v>0.875</v>
       </c>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="81"/>
-      <c r="Q25" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="36"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="47"/>
+      <c r="Q25" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="80"/>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
       <c r="I26" s="20">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J26" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="79"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="40"/>
+      <c r="J26" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="45"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="90"/>
     </row>
     <row r="27" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
       <c r="I27" s="28">
         <v>0.95833333333333304</v>
       </c>
-      <c r="J27" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="77"/>
+      <c r="J27" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="43"/>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2773,6 +2805,131 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="149">
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="A22:G28"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A2:G2"/>
@@ -2797,131 +2954,6 @@
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="J16:O16"/>
     <mergeCell ref="J17:O17"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="A22:G28"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="S21:S22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
